--- a/biology/Zoologie/Cani-VTT/Cani-VTT.xlsx
+++ b/biology/Zoologie/Cani-VTT/Cani-VTT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cani-VTT ou bike-jöring est un sport canin qui se définit comme l'union d'un chien et d'un cycliste, reliés entre eux et effectuant de concert le même effort physique sur un parcours balisé.
 Ce sport étant très exigeant pour le chien, il est déconseillé de le pratiquer avant que le chien n'ait atteint l'âge de 12 mois. La compétition n'est autorisée qu'à partir de l'âge de 18 mois par les fédérations françaises FFST et FSLC.
@@ -513,7 +525,9 @@
           <t>Compétition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les races de chiens sont admises dans les compétitions hormis les chiens de première catégorie.
 La compétition est accessible dès l'âge de 15 ans en catégorie Junior.
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Le matériel
-sont obligatoires les ports : d'un harnais de traction adapté pour le chien, d'une laisse extensible (maximum 2,50 m en extension), d'un casque et de gants ;
+          <t>Le matériel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>sont obligatoires les ports : d'un harnais de traction adapté pour le chien, d'une laisse extensible (maximum 2,50 m en extension), d'un casque et de gants ;
 sont conseillés : un vélo type tout terrain équipé d’une barre de traction à l’avant et le port de lunettes de protection ;
 sont strictement interdits : les vélos équipés de garde-boue métalliques , les pneus cloutés et les attaches latérales dites « Springer ».</t>
         </is>
